--- a/tests/Templates/GroupTagTests_TotalLabel.xlsx
+++ b/tests/Templates/GroupTagTests_TotalLabel.xlsx
@@ -103,7 +103,6 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -151,7 +150,6 @@
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="5">
